--- a/Climat.xlsx
+++ b/Climat.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fallo\Documents\Dev\Donnees\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3B973A-D9A9-4CCF-A859-7D8A9E19D4FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15636E45-5624-485A-AED5-DD8218BFD295}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SI " sheetId="2" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="5" r:id="rId2"/>
-    <sheet name="SI -erreur" sheetId="3" r:id="rId3"/>
+    <sheet name="Data" sheetId="6" r:id="rId3"/>
+    <sheet name="SI -erreur" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
   <si>
     <t>janvier</t>
   </si>
@@ -227,6 +228,18 @@
   </si>
   <si>
     <t>implémenter ces lois dans votre application précédente</t>
+  </si>
+  <si>
+    <t>Air temperature (degC)</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -775,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2157,8 +2170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1525A680-A717-4CBC-89A4-CD76CC331C8B}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3435,10 +3448,5153 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6CBF95-BF9D-4995-BF2E-16230765EB33}">
+  <dimension ref="A1:D366"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.796875" customWidth="1"/>
+    <col min="2" max="4" width="7.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>-4</v>
+      </c>
+      <c r="B2">
+        <v>2018</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="B3">
+        <v>2018</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="B4">
+        <v>2018</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-6.5</v>
+      </c>
+      <c r="B5">
+        <v>2018</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-11.2</v>
+      </c>
+      <c r="B6">
+        <v>2018</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-2.8</v>
+      </c>
+      <c r="B7">
+        <v>2018</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-6</v>
+      </c>
+      <c r="B8">
+        <v>2018</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-11.7</v>
+      </c>
+      <c r="B9">
+        <v>2018</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>-13</v>
+      </c>
+      <c r="B10">
+        <v>2018</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>-8.9</v>
+      </c>
+      <c r="B11">
+        <v>2018</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>-6.2</v>
+      </c>
+      <c r="B12">
+        <v>2018</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>-6.5</v>
+      </c>
+      <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>-10.1</v>
+      </c>
+      <c r="B14">
+        <v>2018</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-3</v>
+      </c>
+      <c r="B15">
+        <v>2018</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>-5.3</v>
+      </c>
+      <c r="B16">
+        <v>2018</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>-11.2</v>
+      </c>
+      <c r="B17">
+        <v>2018</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>-15.8</v>
+      </c>
+      <c r="B18">
+        <v>2018</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>-10.5</v>
+      </c>
+      <c r="B19">
+        <v>2018</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>-14</v>
+      </c>
+      <c r="B20">
+        <v>2018</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>-11.5</v>
+      </c>
+      <c r="B21">
+        <v>2018</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>-13.3</v>
+      </c>
+      <c r="B22">
+        <v>2018</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>-21</v>
+      </c>
+      <c r="B23">
+        <v>2018</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>-22.2</v>
+      </c>
+      <c r="B24">
+        <v>2018</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>-22.5</v>
+      </c>
+      <c r="B25">
+        <v>2018</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>-4</v>
+      </c>
+      <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>-12.1</v>
+      </c>
+      <c r="B27">
+        <v>2018</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>-15.7</v>
+      </c>
+      <c r="B28">
+        <v>2018</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>-13.2</v>
+      </c>
+      <c r="B29">
+        <v>2018</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="B30">
+        <v>2018</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>-7.1</v>
+      </c>
+      <c r="B31">
+        <v>2018</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>-14.3</v>
+      </c>
+      <c r="B32">
+        <v>2018</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>-28</v>
+      </c>
+      <c r="B33">
+        <v>2018</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>-21.4</v>
+      </c>
+      <c r="B34">
+        <v>2018</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>-18</v>
+      </c>
+      <c r="B35">
+        <v>2018</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>-23.3</v>
+      </c>
+      <c r="B36">
+        <v>2018</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>-27.1</v>
+      </c>
+      <c r="B37">
+        <v>2018</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>-21.5</v>
+      </c>
+      <c r="B38">
+        <v>2018</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>-15.7</v>
+      </c>
+      <c r="B39">
+        <v>2018</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>-16</v>
+      </c>
+      <c r="B40">
+        <v>2018</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>-6.3</v>
+      </c>
+      <c r="B41">
+        <v>2018</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>-6.2</v>
+      </c>
+      <c r="B42">
+        <v>2018</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="B43">
+        <v>2018</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>-12.9</v>
+      </c>
+      <c r="B44">
+        <v>2018</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>-7.2</v>
+      </c>
+      <c r="B45">
+        <v>2018</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>-2.5</v>
+      </c>
+      <c r="B46">
+        <v>2018</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>-2.4</v>
+      </c>
+      <c r="B47">
+        <v>2018</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>-4</v>
+      </c>
+      <c r="B48">
+        <v>2018</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>-8.5</v>
+      </c>
+      <c r="B49">
+        <v>2018</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>-13.7</v>
+      </c>
+      <c r="B50">
+        <v>2018</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="B51">
+        <v>2018</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>-22.1</v>
+      </c>
+      <c r="B52">
+        <v>2018</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>-15.6</v>
+      </c>
+      <c r="B53">
+        <v>2018</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>-16.8</v>
+      </c>
+      <c r="B54">
+        <v>2018</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>-23.8</v>
+      </c>
+      <c r="B55">
+        <v>2018</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>-20</v>
+      </c>
+      <c r="B56">
+        <v>2018</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>-9.4</v>
+      </c>
+      <c r="B57">
+        <v>2018</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>-7.7</v>
+      </c>
+      <c r="B58">
+        <v>2018</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>-16.7</v>
+      </c>
+      <c r="B59">
+        <v>2018</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="B60">
+        <v>2018</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="B61">
+        <v>2018</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>-7.8</v>
+      </c>
+      <c r="B62">
+        <v>2018</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>-15.8</v>
+      </c>
+      <c r="B63">
+        <v>2018</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="B64">
+        <v>2018</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="B65">
+        <v>2018</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>-22.6</v>
+      </c>
+      <c r="B66">
+        <v>2018</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>-16.7</v>
+      </c>
+      <c r="B67">
+        <v>2018</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>-14.3</v>
+      </c>
+      <c r="B68">
+        <v>2018</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="B69">
+        <v>2018</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>-6.5</v>
+      </c>
+      <c r="B70">
+        <v>2018</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>-3.4</v>
+      </c>
+      <c r="B71">
+        <v>2018</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>-7.2</v>
+      </c>
+      <c r="B72">
+        <v>2018</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>-9</v>
+      </c>
+      <c r="B73">
+        <v>2018</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>-9.4</v>
+      </c>
+      <c r="B74">
+        <v>2018</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>-13.4</v>
+      </c>
+      <c r="B75">
+        <v>2018</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>-13.2</v>
+      </c>
+      <c r="B76">
+        <v>2018</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="B77">
+        <v>2018</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="B78">
+        <v>2018</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>-10.4</v>
+      </c>
+      <c r="B79">
+        <v>2018</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="B80">
+        <v>2018</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>-11.5</v>
+      </c>
+      <c r="B81">
+        <v>2018</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="B82">
+        <v>2018</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>-12.3</v>
+      </c>
+      <c r="B83">
+        <v>2018</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="B84">
+        <v>2018</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>-13.3</v>
+      </c>
+      <c r="B85">
+        <v>2018</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>-11</v>
+      </c>
+      <c r="B86">
+        <v>2018</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="B87">
+        <v>2018</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>-6.8</v>
+      </c>
+      <c r="B88">
+        <v>2018</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>-3.1</v>
+      </c>
+      <c r="B89">
+        <v>2018</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>-5.4</v>
+      </c>
+      <c r="B90">
+        <v>2018</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>-3.8</v>
+      </c>
+      <c r="B91">
+        <v>2018</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>-5.7</v>
+      </c>
+      <c r="B92">
+        <v>2018</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>-5.7</v>
+      </c>
+      <c r="B93">
+        <v>2018</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>-2.6</v>
+      </c>
+      <c r="B94">
+        <v>2018</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>-2</v>
+      </c>
+      <c r="B95">
+        <v>2018</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>-0.5</v>
+      </c>
+      <c r="B96">
+        <v>2018</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>0.2</v>
+      </c>
+      <c r="B97">
+        <v>2018</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>-1.6</v>
+      </c>
+      <c r="B98">
+        <v>2018</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>-3.8</v>
+      </c>
+      <c r="B99">
+        <v>2018</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="B100">
+        <v>2018</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="B101">
+        <v>2018</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="B102">
+        <v>2018</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>0.5</v>
+      </c>
+      <c r="B103">
+        <v>2018</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>0.7</v>
+      </c>
+      <c r="B104">
+        <v>2018</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>1.9</v>
+      </c>
+      <c r="B105">
+        <v>2018</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>0.9</v>
+      </c>
+      <c r="B106">
+        <v>2018</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>3</v>
+      </c>
+      <c r="B107">
+        <v>2018</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B108">
+        <v>2018</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>4</v>
+      </c>
+      <c r="B109">
+        <v>2018</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>1.7</v>
+      </c>
+      <c r="B110">
+        <v>2018</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>-1.5</v>
+      </c>
+      <c r="B111">
+        <v>2018</v>
+      </c>
+      <c r="C111">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>-1.6</v>
+      </c>
+      <c r="B112">
+        <v>2018</v>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>-0.8</v>
+      </c>
+      <c r="B113">
+        <v>2018</v>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2.1</v>
+      </c>
+      <c r="B114">
+        <v>2018</v>
+      </c>
+      <c r="C114">
+        <v>4</v>
+      </c>
+      <c r="D114">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>3.8</v>
+      </c>
+      <c r="B115">
+        <v>2018</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>3.6</v>
+      </c>
+      <c r="B116">
+        <v>2018</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>3.2</v>
+      </c>
+      <c r="B117">
+        <v>2018</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>2.8</v>
+      </c>
+      <c r="B118">
+        <v>2018</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>3.9</v>
+      </c>
+      <c r="B119">
+        <v>2018</v>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B120">
+        <v>2018</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>0.9</v>
+      </c>
+      <c r="B121">
+        <v>2018</v>
+      </c>
+      <c r="C121">
+        <v>4</v>
+      </c>
+      <c r="D121">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>2.8</v>
+      </c>
+      <c r="B122">
+        <v>2018</v>
+      </c>
+      <c r="C122">
+        <v>5</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>2.6</v>
+      </c>
+      <c r="B123">
+        <v>2018</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>4.2</v>
+      </c>
+      <c r="B124">
+        <v>2018</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>1.3</v>
+      </c>
+      <c r="B125">
+        <v>2018</v>
+      </c>
+      <c r="C125">
+        <v>5</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126">
+        <v>2018</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>6.1</v>
+      </c>
+      <c r="B127">
+        <v>2018</v>
+      </c>
+      <c r="C127">
+        <v>5</v>
+      </c>
+      <c r="D127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>3.7</v>
+      </c>
+      <c r="B128">
+        <v>2018</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+      <c r="D128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>5.3</v>
+      </c>
+      <c r="B129">
+        <v>2018</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+      <c r="D129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>10</v>
+      </c>
+      <c r="B130">
+        <v>2018</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+      <c r="D130">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>13.7</v>
+      </c>
+      <c r="B131">
+        <v>2018</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>13.8</v>
+      </c>
+      <c r="B132">
+        <v>2018</v>
+      </c>
+      <c r="C132">
+        <v>5</v>
+      </c>
+      <c r="D132">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>14.7</v>
+      </c>
+      <c r="B133">
+        <v>2018</v>
+      </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
+      <c r="D133">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>15</v>
+      </c>
+      <c r="B134">
+        <v>2018</v>
+      </c>
+      <c r="C134">
+        <v>5</v>
+      </c>
+      <c r="D134">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>15.6</v>
+      </c>
+      <c r="B135">
+        <v>2018</v>
+      </c>
+      <c r="C135">
+        <v>5</v>
+      </c>
+      <c r="D135">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>14.9</v>
+      </c>
+      <c r="B136">
+        <v>2018</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+      <c r="D136">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>16.7</v>
+      </c>
+      <c r="B137">
+        <v>2018</v>
+      </c>
+      <c r="C137">
+        <v>5</v>
+      </c>
+      <c r="D137">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>7.9</v>
+      </c>
+      <c r="B138">
+        <v>2018</v>
+      </c>
+      <c r="C138">
+        <v>5</v>
+      </c>
+      <c r="D138">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>6.4</v>
+      </c>
+      <c r="B139">
+        <v>2018</v>
+      </c>
+      <c r="C139">
+        <v>5</v>
+      </c>
+      <c r="D139">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>10</v>
+      </c>
+      <c r="B140">
+        <v>2018</v>
+      </c>
+      <c r="C140">
+        <v>5</v>
+      </c>
+      <c r="D140">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>10.6</v>
+      </c>
+      <c r="B141">
+        <v>2018</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+      <c r="D141">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>15.6</v>
+      </c>
+      <c r="B142">
+        <v>2018</v>
+      </c>
+      <c r="C142">
+        <v>5</v>
+      </c>
+      <c r="D142">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>16</v>
+      </c>
+      <c r="B143">
+        <v>2018</v>
+      </c>
+      <c r="C143">
+        <v>5</v>
+      </c>
+      <c r="D143">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>7.9</v>
+      </c>
+      <c r="B144">
+        <v>2018</v>
+      </c>
+      <c r="C144">
+        <v>5</v>
+      </c>
+      <c r="D144">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>7.6</v>
+      </c>
+      <c r="B145">
+        <v>2018</v>
+      </c>
+      <c r="C145">
+        <v>5</v>
+      </c>
+      <c r="D145">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>14.5</v>
+      </c>
+      <c r="B146">
+        <v>2018</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
+      <c r="D146">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>11.5</v>
+      </c>
+      <c r="B147">
+        <v>2018</v>
+      </c>
+      <c r="C147">
+        <v>5</v>
+      </c>
+      <c r="D147">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>9.5</v>
+      </c>
+      <c r="B148">
+        <v>2018</v>
+      </c>
+      <c r="C148">
+        <v>5</v>
+      </c>
+      <c r="D148">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>15.3</v>
+      </c>
+      <c r="B149">
+        <v>2018</v>
+      </c>
+      <c r="C149">
+        <v>5</v>
+      </c>
+      <c r="D149">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>14</v>
+      </c>
+      <c r="B150">
+        <v>2018</v>
+      </c>
+      <c r="C150">
+        <v>5</v>
+      </c>
+      <c r="D150">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>7.8</v>
+      </c>
+      <c r="B151">
+        <v>2018</v>
+      </c>
+      <c r="C151">
+        <v>5</v>
+      </c>
+      <c r="D151">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>9</v>
+      </c>
+      <c r="B152">
+        <v>2018</v>
+      </c>
+      <c r="C152">
+        <v>5</v>
+      </c>
+      <c r="D152">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>12.3</v>
+      </c>
+      <c r="B153">
+        <v>2018</v>
+      </c>
+      <c r="C153">
+        <v>6</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>11.4</v>
+      </c>
+      <c r="B154">
+        <v>2018</v>
+      </c>
+      <c r="C154">
+        <v>6</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B155">
+        <v>2018</v>
+      </c>
+      <c r="C155">
+        <v>6</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>5.4</v>
+      </c>
+      <c r="B156">
+        <v>2018</v>
+      </c>
+      <c r="C156">
+        <v>6</v>
+      </c>
+      <c r="D156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>4.5</v>
+      </c>
+      <c r="B157">
+        <v>2018</v>
+      </c>
+      <c r="C157">
+        <v>6</v>
+      </c>
+      <c r="D157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>4.5</v>
+      </c>
+      <c r="B158">
+        <v>2018</v>
+      </c>
+      <c r="C158">
+        <v>6</v>
+      </c>
+      <c r="D158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>5.7</v>
+      </c>
+      <c r="B159">
+        <v>2018</v>
+      </c>
+      <c r="C159">
+        <v>6</v>
+      </c>
+      <c r="D159">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>6.2</v>
+      </c>
+      <c r="B160">
+        <v>2018</v>
+      </c>
+      <c r="C160">
+        <v>6</v>
+      </c>
+      <c r="D160">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>8.6</v>
+      </c>
+      <c r="B161">
+        <v>2018</v>
+      </c>
+      <c r="C161">
+        <v>6</v>
+      </c>
+      <c r="D161">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>9.6</v>
+      </c>
+      <c r="B162">
+        <v>2018</v>
+      </c>
+      <c r="C162">
+        <v>6</v>
+      </c>
+      <c r="D162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B163">
+        <v>2018</v>
+      </c>
+      <c r="C163">
+        <v>6</v>
+      </c>
+      <c r="D163">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>4.5</v>
+      </c>
+      <c r="B164">
+        <v>2018</v>
+      </c>
+      <c r="C164">
+        <v>6</v>
+      </c>
+      <c r="D164">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>6.5</v>
+      </c>
+      <c r="B165">
+        <v>2018</v>
+      </c>
+      <c r="C165">
+        <v>6</v>
+      </c>
+      <c r="D165">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>10.6</v>
+      </c>
+      <c r="B166">
+        <v>2018</v>
+      </c>
+      <c r="C166">
+        <v>6</v>
+      </c>
+      <c r="D166">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>14.9</v>
+      </c>
+      <c r="B167">
+        <v>2018</v>
+      </c>
+      <c r="C167">
+        <v>6</v>
+      </c>
+      <c r="D167">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="B168">
+        <v>2018</v>
+      </c>
+      <c r="C168">
+        <v>6</v>
+      </c>
+      <c r="D168">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="B169">
+        <v>2018</v>
+      </c>
+      <c r="C169">
+        <v>6</v>
+      </c>
+      <c r="D169">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>14.8</v>
+      </c>
+      <c r="B170">
+        <v>2018</v>
+      </c>
+      <c r="C170">
+        <v>6</v>
+      </c>
+      <c r="D170">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>14.8</v>
+      </c>
+      <c r="B171">
+        <v>2018</v>
+      </c>
+      <c r="C171">
+        <v>6</v>
+      </c>
+      <c r="D171">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>11.9</v>
+      </c>
+      <c r="B172">
+        <v>2018</v>
+      </c>
+      <c r="C172">
+        <v>6</v>
+      </c>
+      <c r="D172">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>12.5</v>
+      </c>
+      <c r="B173">
+        <v>2018</v>
+      </c>
+      <c r="C173">
+        <v>6</v>
+      </c>
+      <c r="D173">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>11</v>
+      </c>
+      <c r="B174">
+        <v>2018</v>
+      </c>
+      <c r="C174">
+        <v>6</v>
+      </c>
+      <c r="D174">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>11.1</v>
+      </c>
+      <c r="B175">
+        <v>2018</v>
+      </c>
+      <c r="C175">
+        <v>6</v>
+      </c>
+      <c r="D175">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>11.1</v>
+      </c>
+      <c r="B176">
+        <v>2018</v>
+      </c>
+      <c r="C176">
+        <v>6</v>
+      </c>
+      <c r="D176">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>15.3</v>
+      </c>
+      <c r="B177">
+        <v>2018</v>
+      </c>
+      <c r="C177">
+        <v>6</v>
+      </c>
+      <c r="D177">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="B178">
+        <v>2018</v>
+      </c>
+      <c r="C178">
+        <v>6</v>
+      </c>
+      <c r="D178">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>13.9</v>
+      </c>
+      <c r="B179">
+        <v>2018</v>
+      </c>
+      <c r="C179">
+        <v>6</v>
+      </c>
+      <c r="D179">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>10.7</v>
+      </c>
+      <c r="B180">
+        <v>2018</v>
+      </c>
+      <c r="C180">
+        <v>6</v>
+      </c>
+      <c r="D180">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>11.1</v>
+      </c>
+      <c r="B181">
+        <v>2018</v>
+      </c>
+      <c r="C181">
+        <v>6</v>
+      </c>
+      <c r="D181">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>9.5</v>
+      </c>
+      <c r="B182">
+        <v>2018</v>
+      </c>
+      <c r="C182">
+        <v>6</v>
+      </c>
+      <c r="D182">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>13.9</v>
+      </c>
+      <c r="B183">
+        <v>2018</v>
+      </c>
+      <c r="C183">
+        <v>7</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="B184">
+        <v>2018</v>
+      </c>
+      <c r="C184">
+        <v>7</v>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>17.8</v>
+      </c>
+      <c r="B185">
+        <v>2018</v>
+      </c>
+      <c r="C185">
+        <v>7</v>
+      </c>
+      <c r="D185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>15.4</v>
+      </c>
+      <c r="B186">
+        <v>2018</v>
+      </c>
+      <c r="C186">
+        <v>7</v>
+      </c>
+      <c r="D186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>13.7</v>
+      </c>
+      <c r="B187">
+        <v>2018</v>
+      </c>
+      <c r="C187">
+        <v>7</v>
+      </c>
+      <c r="D187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>17.7</v>
+      </c>
+      <c r="B188">
+        <v>2018</v>
+      </c>
+      <c r="C188">
+        <v>7</v>
+      </c>
+      <c r="D188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>15.1</v>
+      </c>
+      <c r="B189">
+        <v>2018</v>
+      </c>
+      <c r="C189">
+        <v>7</v>
+      </c>
+      <c r="D189">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>18.3</v>
+      </c>
+      <c r="B190">
+        <v>2018</v>
+      </c>
+      <c r="C190">
+        <v>7</v>
+      </c>
+      <c r="D190">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="B191">
+        <v>2018</v>
+      </c>
+      <c r="C191">
+        <v>7</v>
+      </c>
+      <c r="D191">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>19.5</v>
+      </c>
+      <c r="B192">
+        <v>2018</v>
+      </c>
+      <c r="C192">
+        <v>7</v>
+      </c>
+      <c r="D192">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>21.6</v>
+      </c>
+      <c r="B193">
+        <v>2018</v>
+      </c>
+      <c r="C193">
+        <v>7</v>
+      </c>
+      <c r="D193">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>20.7</v>
+      </c>
+      <c r="B194">
+        <v>2018</v>
+      </c>
+      <c r="C194">
+        <v>7</v>
+      </c>
+      <c r="D194">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="B195">
+        <v>2018</v>
+      </c>
+      <c r="C195">
+        <v>7</v>
+      </c>
+      <c r="D195">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="B196">
+        <v>2018</v>
+      </c>
+      <c r="C196">
+        <v>7</v>
+      </c>
+      <c r="D196">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>17.3</v>
+      </c>
+      <c r="B197">
+        <v>2018</v>
+      </c>
+      <c r="C197">
+        <v>7</v>
+      </c>
+      <c r="D197">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="B198">
+        <v>2018</v>
+      </c>
+      <c r="C198">
+        <v>7</v>
+      </c>
+      <c r="D198">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>23.3</v>
+      </c>
+      <c r="B199">
+        <v>2018</v>
+      </c>
+      <c r="C199">
+        <v>7</v>
+      </c>
+      <c r="D199">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>25</v>
+      </c>
+      <c r="B200">
+        <v>2018</v>
+      </c>
+      <c r="C200">
+        <v>7</v>
+      </c>
+      <c r="D200">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>24.1</v>
+      </c>
+      <c r="B201">
+        <v>2018</v>
+      </c>
+      <c r="C201">
+        <v>7</v>
+      </c>
+      <c r="D201">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>23.5</v>
+      </c>
+      <c r="B202">
+        <v>2018</v>
+      </c>
+      <c r="C202">
+        <v>7</v>
+      </c>
+      <c r="D202">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>18.8</v>
+      </c>
+      <c r="B203">
+        <v>2018</v>
+      </c>
+      <c r="C203">
+        <v>7</v>
+      </c>
+      <c r="D203">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>20.5</v>
+      </c>
+      <c r="B204">
+        <v>2018</v>
+      </c>
+      <c r="C204">
+        <v>7</v>
+      </c>
+      <c r="D204">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>20.6</v>
+      </c>
+      <c r="B205">
+        <v>2018</v>
+      </c>
+      <c r="C205">
+        <v>7</v>
+      </c>
+      <c r="D205">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>21.3</v>
+      </c>
+      <c r="B206">
+        <v>2018</v>
+      </c>
+      <c r="C206">
+        <v>7</v>
+      </c>
+      <c r="D206">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>22.9</v>
+      </c>
+      <c r="B207">
+        <v>2018</v>
+      </c>
+      <c r="C207">
+        <v>7</v>
+      </c>
+      <c r="D207">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="B208">
+        <v>2018</v>
+      </c>
+      <c r="C208">
+        <v>7</v>
+      </c>
+      <c r="D208">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>15.4</v>
+      </c>
+      <c r="B209">
+        <v>2018</v>
+      </c>
+      <c r="C209">
+        <v>7</v>
+      </c>
+      <c r="D209">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="B210">
+        <v>2018</v>
+      </c>
+      <c r="C210">
+        <v>7</v>
+      </c>
+      <c r="D210">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>19.2</v>
+      </c>
+      <c r="B211">
+        <v>2018</v>
+      </c>
+      <c r="C211">
+        <v>7</v>
+      </c>
+      <c r="D211">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>22.1</v>
+      </c>
+      <c r="B212">
+        <v>2018</v>
+      </c>
+      <c r="C212">
+        <v>7</v>
+      </c>
+      <c r="D212">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>23.6</v>
+      </c>
+      <c r="B213">
+        <v>2018</v>
+      </c>
+      <c r="C213">
+        <v>7</v>
+      </c>
+      <c r="D213">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>24.2</v>
+      </c>
+      <c r="B214">
+        <v>2018</v>
+      </c>
+      <c r="C214">
+        <v>8</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="B215">
+        <v>2018</v>
+      </c>
+      <c r="C215">
+        <v>8</v>
+      </c>
+      <c r="D215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>15.5</v>
+      </c>
+      <c r="B216">
+        <v>2018</v>
+      </c>
+      <c r="C216">
+        <v>8</v>
+      </c>
+      <c r="D216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>13.6</v>
+      </c>
+      <c r="B217">
+        <v>2018</v>
+      </c>
+      <c r="C217">
+        <v>8</v>
+      </c>
+      <c r="D217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>14</v>
+      </c>
+      <c r="B218">
+        <v>2018</v>
+      </c>
+      <c r="C218">
+        <v>8</v>
+      </c>
+      <c r="D218">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>11.8</v>
+      </c>
+      <c r="B219">
+        <v>2018</v>
+      </c>
+      <c r="C219">
+        <v>8</v>
+      </c>
+      <c r="D219">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>10.1</v>
+      </c>
+      <c r="B220">
+        <v>2018</v>
+      </c>
+      <c r="C220">
+        <v>8</v>
+      </c>
+      <c r="D220">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>15.6</v>
+      </c>
+      <c r="B221">
+        <v>2018</v>
+      </c>
+      <c r="C221">
+        <v>8</v>
+      </c>
+      <c r="D221">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="B222">
+        <v>2018</v>
+      </c>
+      <c r="C222">
+        <v>8</v>
+      </c>
+      <c r="D222">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>17</v>
+      </c>
+      <c r="B223">
+        <v>2018</v>
+      </c>
+      <c r="C223">
+        <v>8</v>
+      </c>
+      <c r="D223">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="B224">
+        <v>2018</v>
+      </c>
+      <c r="C224">
+        <v>8</v>
+      </c>
+      <c r="D224">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>13.8</v>
+      </c>
+      <c r="B225">
+        <v>2018</v>
+      </c>
+      <c r="C225">
+        <v>8</v>
+      </c>
+      <c r="D225">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>11.9</v>
+      </c>
+      <c r="B226">
+        <v>2018</v>
+      </c>
+      <c r="C226">
+        <v>8</v>
+      </c>
+      <c r="D226">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B227">
+        <v>2018</v>
+      </c>
+      <c r="C227">
+        <v>8</v>
+      </c>
+      <c r="D227">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="B228">
+        <v>2018</v>
+      </c>
+      <c r="C228">
+        <v>8</v>
+      </c>
+      <c r="D228">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B229">
+        <v>2018</v>
+      </c>
+      <c r="C229">
+        <v>8</v>
+      </c>
+      <c r="D229">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="B230">
+        <v>2018</v>
+      </c>
+      <c r="C230">
+        <v>8</v>
+      </c>
+      <c r="D230">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="B231">
+        <v>2018</v>
+      </c>
+      <c r="C231">
+        <v>8</v>
+      </c>
+      <c r="D231">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>13.7</v>
+      </c>
+      <c r="B232">
+        <v>2018</v>
+      </c>
+      <c r="C232">
+        <v>8</v>
+      </c>
+      <c r="D232">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>10.7</v>
+      </c>
+      <c r="B233">
+        <v>2018</v>
+      </c>
+      <c r="C233">
+        <v>8</v>
+      </c>
+      <c r="D233">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="B234">
+        <v>2018</v>
+      </c>
+      <c r="C234">
+        <v>8</v>
+      </c>
+      <c r="D234">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>9</v>
+      </c>
+      <c r="B235">
+        <v>2018</v>
+      </c>
+      <c r="C235">
+        <v>8</v>
+      </c>
+      <c r="D235">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>8.9</v>
+      </c>
+      <c r="B236">
+        <v>2018</v>
+      </c>
+      <c r="C236">
+        <v>8</v>
+      </c>
+      <c r="D236">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>9.6</v>
+      </c>
+      <c r="B237">
+        <v>2018</v>
+      </c>
+      <c r="C237">
+        <v>8</v>
+      </c>
+      <c r="D237">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>14.6</v>
+      </c>
+      <c r="B238">
+        <v>2018</v>
+      </c>
+      <c r="C238">
+        <v>8</v>
+      </c>
+      <c r="D238">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>12.6</v>
+      </c>
+      <c r="B239">
+        <v>2018</v>
+      </c>
+      <c r="C239">
+        <v>8</v>
+      </c>
+      <c r="D239">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>10.6</v>
+      </c>
+      <c r="B240">
+        <v>2018</v>
+      </c>
+      <c r="C240">
+        <v>8</v>
+      </c>
+      <c r="D240">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>9.1</v>
+      </c>
+      <c r="B241">
+        <v>2018</v>
+      </c>
+      <c r="C241">
+        <v>8</v>
+      </c>
+      <c r="D241">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>10.8</v>
+      </c>
+      <c r="B242">
+        <v>2018</v>
+      </c>
+      <c r="C242">
+        <v>8</v>
+      </c>
+      <c r="D242">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>12.5</v>
+      </c>
+      <c r="B243">
+        <v>2018</v>
+      </c>
+      <c r="C243">
+        <v>8</v>
+      </c>
+      <c r="D243">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>12.2</v>
+      </c>
+      <c r="B244">
+        <v>2018</v>
+      </c>
+      <c r="C244">
+        <v>8</v>
+      </c>
+      <c r="D244">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B245">
+        <v>2018</v>
+      </c>
+      <c r="C245">
+        <v>9</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>13</v>
+      </c>
+      <c r="B246">
+        <v>2018</v>
+      </c>
+      <c r="C246">
+        <v>9</v>
+      </c>
+      <c r="D246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>13.4</v>
+      </c>
+      <c r="B247">
+        <v>2018</v>
+      </c>
+      <c r="C247">
+        <v>9</v>
+      </c>
+      <c r="D247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>11.4</v>
+      </c>
+      <c r="B248">
+        <v>2018</v>
+      </c>
+      <c r="C248">
+        <v>9</v>
+      </c>
+      <c r="D248">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>10</v>
+      </c>
+      <c r="B249">
+        <v>2018</v>
+      </c>
+      <c r="C249">
+        <v>9</v>
+      </c>
+      <c r="D249">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B250">
+        <v>2018</v>
+      </c>
+      <c r="C250">
+        <v>9</v>
+      </c>
+      <c r="D250">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>6.6</v>
+      </c>
+      <c r="B251">
+        <v>2018</v>
+      </c>
+      <c r="C251">
+        <v>9</v>
+      </c>
+      <c r="D251">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>5.5</v>
+      </c>
+      <c r="B252">
+        <v>2018</v>
+      </c>
+      <c r="C252">
+        <v>9</v>
+      </c>
+      <c r="D252">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>7.2</v>
+      </c>
+      <c r="B253">
+        <v>2018</v>
+      </c>
+      <c r="C253">
+        <v>9</v>
+      </c>
+      <c r="D253">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="B254">
+        <v>2018</v>
+      </c>
+      <c r="C254">
+        <v>9</v>
+      </c>
+      <c r="D254">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>11</v>
+      </c>
+      <c r="B255">
+        <v>2018</v>
+      </c>
+      <c r="C255">
+        <v>9</v>
+      </c>
+      <c r="D255">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B256">
+        <v>2018</v>
+      </c>
+      <c r="C256">
+        <v>9</v>
+      </c>
+      <c r="D256">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>10.6</v>
+      </c>
+      <c r="B257">
+        <v>2018</v>
+      </c>
+      <c r="C257">
+        <v>9</v>
+      </c>
+      <c r="D257">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>9</v>
+      </c>
+      <c r="B258">
+        <v>2018</v>
+      </c>
+      <c r="C258">
+        <v>9</v>
+      </c>
+      <c r="D258">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B259">
+        <v>2018</v>
+      </c>
+      <c r="C259">
+        <v>9</v>
+      </c>
+      <c r="D259">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>7</v>
+      </c>
+      <c r="B260">
+        <v>2018</v>
+      </c>
+      <c r="C260">
+        <v>9</v>
+      </c>
+      <c r="D260">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>6.3</v>
+      </c>
+      <c r="B261">
+        <v>2018</v>
+      </c>
+      <c r="C261">
+        <v>9</v>
+      </c>
+      <c r="D261">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>5.9</v>
+      </c>
+      <c r="B262">
+        <v>2018</v>
+      </c>
+      <c r="C262">
+        <v>9</v>
+      </c>
+      <c r="D262">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>5.9</v>
+      </c>
+      <c r="B263">
+        <v>2018</v>
+      </c>
+      <c r="C263">
+        <v>9</v>
+      </c>
+      <c r="D263">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B264">
+        <v>2018</v>
+      </c>
+      <c r="C264">
+        <v>9</v>
+      </c>
+      <c r="D264">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>10.1</v>
+      </c>
+      <c r="B265">
+        <v>2018</v>
+      </c>
+      <c r="C265">
+        <v>9</v>
+      </c>
+      <c r="D265">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>11</v>
+      </c>
+      <c r="B266">
+        <v>2018</v>
+      </c>
+      <c r="C266">
+        <v>9</v>
+      </c>
+      <c r="D266">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>9</v>
+      </c>
+      <c r="B267">
+        <v>2018</v>
+      </c>
+      <c r="C267">
+        <v>9</v>
+      </c>
+      <c r="D267">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B268">
+        <v>2018</v>
+      </c>
+      <c r="C268">
+        <v>9</v>
+      </c>
+      <c r="D268">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>2</v>
+      </c>
+      <c r="B269">
+        <v>2018</v>
+      </c>
+      <c r="C269">
+        <v>9</v>
+      </c>
+      <c r="D269">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>2.4</v>
+      </c>
+      <c r="B270">
+        <v>2018</v>
+      </c>
+      <c r="C270">
+        <v>9</v>
+      </c>
+      <c r="D270">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>3.5</v>
+      </c>
+      <c r="B271">
+        <v>2018</v>
+      </c>
+      <c r="C271">
+        <v>9</v>
+      </c>
+      <c r="D271">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>0.4</v>
+      </c>
+      <c r="B272">
+        <v>2018</v>
+      </c>
+      <c r="C272">
+        <v>9</v>
+      </c>
+      <c r="D272">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>-0.6</v>
+      </c>
+      <c r="B273">
+        <v>2018</v>
+      </c>
+      <c r="C273">
+        <v>9</v>
+      </c>
+      <c r="D273">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>3.2</v>
+      </c>
+      <c r="B274">
+        <v>2018</v>
+      </c>
+      <c r="C274">
+        <v>9</v>
+      </c>
+      <c r="D274">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>2</v>
+      </c>
+      <c r="B275">
+        <v>2018</v>
+      </c>
+      <c r="C275">
+        <v>10</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>-1.2</v>
+      </c>
+      <c r="B276">
+        <v>2018</v>
+      </c>
+      <c r="C276">
+        <v>10</v>
+      </c>
+      <c r="D276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>-2.6</v>
+      </c>
+      <c r="B277">
+        <v>2018</v>
+      </c>
+      <c r="C277">
+        <v>10</v>
+      </c>
+      <c r="D277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>-2.7</v>
+      </c>
+      <c r="B278">
+        <v>2018</v>
+      </c>
+      <c r="C278">
+        <v>10</v>
+      </c>
+      <c r="D278">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>-1.7</v>
+      </c>
+      <c r="B279">
+        <v>2018</v>
+      </c>
+      <c r="C279">
+        <v>10</v>
+      </c>
+      <c r="D279">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>-1.3</v>
+      </c>
+      <c r="B280">
+        <v>2018</v>
+      </c>
+      <c r="C280">
+        <v>10</v>
+      </c>
+      <c r="D280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>-3.3</v>
+      </c>
+      <c r="B281">
+        <v>2018</v>
+      </c>
+      <c r="C281">
+        <v>10</v>
+      </c>
+      <c r="D281">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>-2.9</v>
+      </c>
+      <c r="B282">
+        <v>2018</v>
+      </c>
+      <c r="C282">
+        <v>10</v>
+      </c>
+      <c r="D282">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>3.9</v>
+      </c>
+      <c r="B283">
+        <v>2018</v>
+      </c>
+      <c r="C283">
+        <v>10</v>
+      </c>
+      <c r="D283">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>2</v>
+      </c>
+      <c r="B284">
+        <v>2018</v>
+      </c>
+      <c r="C284">
+        <v>10</v>
+      </c>
+      <c r="D284">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>0.3</v>
+      </c>
+      <c r="B285">
+        <v>2018</v>
+      </c>
+      <c r="C285">
+        <v>10</v>
+      </c>
+      <c r="D285">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B286">
+        <v>2018</v>
+      </c>
+      <c r="C286">
+        <v>10</v>
+      </c>
+      <c r="D286">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>7.4</v>
+      </c>
+      <c r="B287">
+        <v>2018</v>
+      </c>
+      <c r="C287">
+        <v>10</v>
+      </c>
+      <c r="D287">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>11</v>
+      </c>
+      <c r="B288">
+        <v>2018</v>
+      </c>
+      <c r="C288">
+        <v>10</v>
+      </c>
+      <c r="D288">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>7</v>
+      </c>
+      <c r="B289">
+        <v>2018</v>
+      </c>
+      <c r="C289">
+        <v>10</v>
+      </c>
+      <c r="D289">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>1.5</v>
+      </c>
+      <c r="B290">
+        <v>2018</v>
+      </c>
+      <c r="C290">
+        <v>10</v>
+      </c>
+      <c r="D290">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B291">
+        <v>2018</v>
+      </c>
+      <c r="C291">
+        <v>10</v>
+      </c>
+      <c r="D291">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>3.2</v>
+      </c>
+      <c r="B292">
+        <v>2018</v>
+      </c>
+      <c r="C292">
+        <v>10</v>
+      </c>
+      <c r="D292">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>0.6</v>
+      </c>
+      <c r="B293">
+        <v>2018</v>
+      </c>
+      <c r="C293">
+        <v>10</v>
+      </c>
+      <c r="D293">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>-0.3</v>
+      </c>
+      <c r="B294">
+        <v>2018</v>
+      </c>
+      <c r="C294">
+        <v>10</v>
+      </c>
+      <c r="D294">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>4.7</v>
+      </c>
+      <c r="B295">
+        <v>2018</v>
+      </c>
+      <c r="C295">
+        <v>10</v>
+      </c>
+      <c r="D295">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>0.9</v>
+      </c>
+      <c r="B296">
+        <v>2018</v>
+      </c>
+      <c r="C296">
+        <v>10</v>
+      </c>
+      <c r="D296">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>-4</v>
+      </c>
+      <c r="B297">
+        <v>2018</v>
+      </c>
+      <c r="C297">
+        <v>10</v>
+      </c>
+      <c r="D297">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>-5.5</v>
+      </c>
+      <c r="B298">
+        <v>2018</v>
+      </c>
+      <c r="C298">
+        <v>10</v>
+      </c>
+      <c r="D298">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>-3.9</v>
+      </c>
+      <c r="B299">
+        <v>2018</v>
+      </c>
+      <c r="C299">
+        <v>10</v>
+      </c>
+      <c r="D299">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>-2.7</v>
+      </c>
+      <c r="B300">
+        <v>2018</v>
+      </c>
+      <c r="C300">
+        <v>10</v>
+      </c>
+      <c r="D300">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>-3.8</v>
+      </c>
+      <c r="B301">
+        <v>2018</v>
+      </c>
+      <c r="C301">
+        <v>10</v>
+      </c>
+      <c r="D301">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>-8.9</v>
+      </c>
+      <c r="B302">
+        <v>2018</v>
+      </c>
+      <c r="C302">
+        <v>10</v>
+      </c>
+      <c r="D302">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>-11.6</v>
+      </c>
+      <c r="B303">
+        <v>2018</v>
+      </c>
+      <c r="C303">
+        <v>10</v>
+      </c>
+      <c r="D303">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>-10.1</v>
+      </c>
+      <c r="B304">
+        <v>2018</v>
+      </c>
+      <c r="C304">
+        <v>10</v>
+      </c>
+      <c r="D304">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>-1</v>
+      </c>
+      <c r="B305">
+        <v>2018</v>
+      </c>
+      <c r="C305">
+        <v>10</v>
+      </c>
+      <c r="D305">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B306">
+        <v>2018</v>
+      </c>
+      <c r="C306">
+        <v>11</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>-2</v>
+      </c>
+      <c r="B307">
+        <v>2018</v>
+      </c>
+      <c r="C307">
+        <v>11</v>
+      </c>
+      <c r="D307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>-0.1</v>
+      </c>
+      <c r="B308">
+        <v>2018</v>
+      </c>
+      <c r="C308">
+        <v>11</v>
+      </c>
+      <c r="D308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>0.4</v>
+      </c>
+      <c r="B309">
+        <v>2018</v>
+      </c>
+      <c r="C309">
+        <v>11</v>
+      </c>
+      <c r="D309">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>3.3</v>
+      </c>
+      <c r="B310">
+        <v>2018</v>
+      </c>
+      <c r="C310">
+        <v>11</v>
+      </c>
+      <c r="D310">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>3.5</v>
+      </c>
+      <c r="B311">
+        <v>2018</v>
+      </c>
+      <c r="C311">
+        <v>11</v>
+      </c>
+      <c r="D311">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>1.5</v>
+      </c>
+      <c r="B312">
+        <v>2018</v>
+      </c>
+      <c r="C312">
+        <v>11</v>
+      </c>
+      <c r="D312">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>1</v>
+      </c>
+      <c r="B313">
+        <v>2018</v>
+      </c>
+      <c r="C313">
+        <v>11</v>
+      </c>
+      <c r="D313">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>0.9</v>
+      </c>
+      <c r="B314">
+        <v>2018</v>
+      </c>
+      <c r="C314">
+        <v>11</v>
+      </c>
+      <c r="D314">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>-0.3</v>
+      </c>
+      <c r="B315">
+        <v>2018</v>
+      </c>
+      <c r="C315">
+        <v>11</v>
+      </c>
+      <c r="D315">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>0.2</v>
+      </c>
+      <c r="B316">
+        <v>2018</v>
+      </c>
+      <c r="C316">
+        <v>11</v>
+      </c>
+      <c r="D316">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>2.1</v>
+      </c>
+      <c r="B317">
+        <v>2018</v>
+      </c>
+      <c r="C317">
+        <v>11</v>
+      </c>
+      <c r="D317">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>3.3</v>
+      </c>
+      <c r="B318">
+        <v>2018</v>
+      </c>
+      <c r="C318">
+        <v>11</v>
+      </c>
+      <c r="D318">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>0.2</v>
+      </c>
+      <c r="B319">
+        <v>2018</v>
+      </c>
+      <c r="C319">
+        <v>11</v>
+      </c>
+      <c r="D319">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B320">
+        <v>2018</v>
+      </c>
+      <c r="C320">
+        <v>11</v>
+      </c>
+      <c r="D320">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B321">
+        <v>2018</v>
+      </c>
+      <c r="C321">
+        <v>11</v>
+      </c>
+      <c r="D321">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>3.8</v>
+      </c>
+      <c r="B322">
+        <v>2018</v>
+      </c>
+      <c r="C322">
+        <v>11</v>
+      </c>
+      <c r="D322">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>-3.4</v>
+      </c>
+      <c r="B323">
+        <v>2018</v>
+      </c>
+      <c r="C323">
+        <v>11</v>
+      </c>
+      <c r="D323">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="B324">
+        <v>2018</v>
+      </c>
+      <c r="C324">
+        <v>11</v>
+      </c>
+      <c r="D324">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>-0.3</v>
+      </c>
+      <c r="B325">
+        <v>2018</v>
+      </c>
+      <c r="C325">
+        <v>11</v>
+      </c>
+      <c r="D325">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>-0.6</v>
+      </c>
+      <c r="B326">
+        <v>2018</v>
+      </c>
+      <c r="C326">
+        <v>11</v>
+      </c>
+      <c r="D326">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>-0.8</v>
+      </c>
+      <c r="B327">
+        <v>2018</v>
+      </c>
+      <c r="C327">
+        <v>11</v>
+      </c>
+      <c r="D327">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>-3.4</v>
+      </c>
+      <c r="B328">
+        <v>2018</v>
+      </c>
+      <c r="C328">
+        <v>11</v>
+      </c>
+      <c r="D328">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>-2.6</v>
+      </c>
+      <c r="B329">
+        <v>2018</v>
+      </c>
+      <c r="C329">
+        <v>11</v>
+      </c>
+      <c r="D329">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>-5</v>
+      </c>
+      <c r="B330">
+        <v>2018</v>
+      </c>
+      <c r="C330">
+        <v>11</v>
+      </c>
+      <c r="D330">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>-6.9</v>
+      </c>
+      <c r="B331">
+        <v>2018</v>
+      </c>
+      <c r="C331">
+        <v>11</v>
+      </c>
+      <c r="D331">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>-11.4</v>
+      </c>
+      <c r="B332">
+        <v>2018</v>
+      </c>
+      <c r="C332">
+        <v>11</v>
+      </c>
+      <c r="D332">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>-8.1</v>
+      </c>
+      <c r="B333">
+        <v>2018</v>
+      </c>
+      <c r="C333">
+        <v>11</v>
+      </c>
+      <c r="D333">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>-1.9</v>
+      </c>
+      <c r="B334">
+        <v>2018</v>
+      </c>
+      <c r="C334">
+        <v>11</v>
+      </c>
+      <c r="D334">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>1.3</v>
+      </c>
+      <c r="B335">
+        <v>2018</v>
+      </c>
+      <c r="C335">
+        <v>11</v>
+      </c>
+      <c r="D335">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>1</v>
+      </c>
+      <c r="B336">
+        <v>2018</v>
+      </c>
+      <c r="C336">
+        <v>12</v>
+      </c>
+      <c r="D336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>-3.5</v>
+      </c>
+      <c r="B337">
+        <v>2018</v>
+      </c>
+      <c r="C337">
+        <v>12</v>
+      </c>
+      <c r="D337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>-3.2</v>
+      </c>
+      <c r="B338">
+        <v>2018</v>
+      </c>
+      <c r="C338">
+        <v>12</v>
+      </c>
+      <c r="D338">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>-6.1</v>
+      </c>
+      <c r="B339">
+        <v>2018</v>
+      </c>
+      <c r="C339">
+        <v>12</v>
+      </c>
+      <c r="D339">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>-3.7</v>
+      </c>
+      <c r="B340">
+        <v>2018</v>
+      </c>
+      <c r="C340">
+        <v>12</v>
+      </c>
+      <c r="D340">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>-5.2</v>
+      </c>
+      <c r="B341">
+        <v>2018</v>
+      </c>
+      <c r="C341">
+        <v>12</v>
+      </c>
+      <c r="D341">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>-7.1</v>
+      </c>
+      <c r="B342">
+        <v>2018</v>
+      </c>
+      <c r="C342">
+        <v>12</v>
+      </c>
+      <c r="D342">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>-3.4</v>
+      </c>
+      <c r="B343">
+        <v>2018</v>
+      </c>
+      <c r="C343">
+        <v>12</v>
+      </c>
+      <c r="D343">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>-2.7</v>
+      </c>
+      <c r="B344">
+        <v>2018</v>
+      </c>
+      <c r="C344">
+        <v>12</v>
+      </c>
+      <c r="D344">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>-2.5</v>
+      </c>
+      <c r="B345">
+        <v>2018</v>
+      </c>
+      <c r="C345">
+        <v>12</v>
+      </c>
+      <c r="D345">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>-3.4</v>
+      </c>
+      <c r="B346">
+        <v>2018</v>
+      </c>
+      <c r="C346">
+        <v>12</v>
+      </c>
+      <c r="D346">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>-15</v>
+      </c>
+      <c r="B347">
+        <v>2018</v>
+      </c>
+      <c r="C347">
+        <v>12</v>
+      </c>
+      <c r="D347">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>-12.3</v>
+      </c>
+      <c r="B348">
+        <v>2018</v>
+      </c>
+      <c r="C348">
+        <v>12</v>
+      </c>
+      <c r="D348">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>-5.7</v>
+      </c>
+      <c r="B349">
+        <v>2018</v>
+      </c>
+      <c r="C349">
+        <v>12</v>
+      </c>
+      <c r="D349">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>-5.2</v>
+      </c>
+      <c r="B350">
+        <v>2018</v>
+      </c>
+      <c r="C350">
+        <v>12</v>
+      </c>
+      <c r="D350">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="B351">
+        <v>2018</v>
+      </c>
+      <c r="C351">
+        <v>12</v>
+      </c>
+      <c r="D351">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>-7.9</v>
+      </c>
+      <c r="B352">
+        <v>2018</v>
+      </c>
+      <c r="C352">
+        <v>12</v>
+      </c>
+      <c r="D352">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>-7</v>
+      </c>
+      <c r="B353">
+        <v>2018</v>
+      </c>
+      <c r="C353">
+        <v>12</v>
+      </c>
+      <c r="D353">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>-7</v>
+      </c>
+      <c r="B354">
+        <v>2018</v>
+      </c>
+      <c r="C354">
+        <v>12</v>
+      </c>
+      <c r="D354">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>-6.7</v>
+      </c>
+      <c r="B355">
+        <v>2018</v>
+      </c>
+      <c r="C355">
+        <v>12</v>
+      </c>
+      <c r="D355">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>-9.6</v>
+      </c>
+      <c r="B356">
+        <v>2018</v>
+      </c>
+      <c r="C356">
+        <v>12</v>
+      </c>
+      <c r="D356">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>-22</v>
+      </c>
+      <c r="B357">
+        <v>2018</v>
+      </c>
+      <c r="C357">
+        <v>12</v>
+      </c>
+      <c r="D357">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>-24.6</v>
+      </c>
+      <c r="B358">
+        <v>2018</v>
+      </c>
+      <c r="C358">
+        <v>12</v>
+      </c>
+      <c r="D358">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>-14.7</v>
+      </c>
+      <c r="B359">
+        <v>2018</v>
+      </c>
+      <c r="C359">
+        <v>12</v>
+      </c>
+      <c r="D359">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>-7.6</v>
+      </c>
+      <c r="B360">
+        <v>2018</v>
+      </c>
+      <c r="C360">
+        <v>12</v>
+      </c>
+      <c r="D360">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>-8.4</v>
+      </c>
+      <c r="B361">
+        <v>2018</v>
+      </c>
+      <c r="C361">
+        <v>12</v>
+      </c>
+      <c r="D361">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>-12.1</v>
+      </c>
+      <c r="B362">
+        <v>2018</v>
+      </c>
+      <c r="C362">
+        <v>12</v>
+      </c>
+      <c r="D362">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>-9.4</v>
+      </c>
+      <c r="B363">
+        <v>2018</v>
+      </c>
+      <c r="C363">
+        <v>12</v>
+      </c>
+      <c r="D363">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>-3.1</v>
+      </c>
+      <c r="B364">
+        <v>2018</v>
+      </c>
+      <c r="C364">
+        <v>12</v>
+      </c>
+      <c r="D364">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>-15.4</v>
+      </c>
+      <c r="B365">
+        <v>2018</v>
+      </c>
+      <c r="C365">
+        <v>12</v>
+      </c>
+      <c r="D365">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>-12.8</v>
+      </c>
+      <c r="B366">
+        <v>2018</v>
+      </c>
+      <c r="C366">
+        <v>12</v>
+      </c>
+      <c r="D366">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>

--- a/Climat.xlsx
+++ b/Climat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fallo\Documents\Dev\Donnees\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15636E45-5624-485A-AED5-DD8218BFD295}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C27BD1-B5ED-4BD6-A570-436FFB2EA3B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SI " sheetId="2" r:id="rId1"/>
@@ -788,7 +788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -2168,10 +2168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1525A680-A717-4CBC-89A4-CD76CC331C8B}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3340,106 +3340,6 @@
       <c r="K31" s="1"/>
       <c r="L31">
         <v>-5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <f>MIN(A1:A28)</f>
-        <v>-23</v>
-      </c>
-      <c r="B33">
-        <f>MIN(B1:B28)</f>
-        <v>-12</v>
-      </c>
-      <c r="C33">
-        <f t="shared" ref="C33:L33" si="0">MIN(C1:C28)</f>
-        <v>-8</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="I33">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="0"/>
-        <v>-8</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>-11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <f>MAX(A1:A28)</f>
-        <v>-3</v>
-      </c>
-      <c r="B34">
-        <f>MAX(B1:B28)</f>
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ref="C34:L34" si="1">MAX(C1:C28)</f>
-        <v>7</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="1"/>
-        <v>-3</v>
       </c>
     </row>
   </sheetData>
@@ -3451,7 +3351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6CBF95-BF9D-4995-BF2E-16230765EB33}">
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>

--- a/Climat.xlsx
+++ b/Climat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fallo\Documents\Dev\Donnees\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C27BD1-B5ED-4BD6-A570-436FFB2EA3B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE330EE-C171-4DCE-A46A-C1F013400086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SI " sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
   <si>
     <t>janvier</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>qs</t>
   </si>
 </sst>
 </file>
@@ -786,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2153,6 +2156,11 @@
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2170,7 +2178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1525A680-A717-4CBC-89A4-CD76CC331C8B}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -3351,7 +3359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6CBF95-BF9D-4995-BF2E-16230765EB33}">
   <dimension ref="A1:D366"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -8494,8 +8502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
